--- a/JavaScript/questions.xlsx
+++ b/JavaScript/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Área de Trabalho\DesbravandoUniverso\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Área de Trabalho\DesbravandoUniverso\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D001F3-33CF-4E05-84CB-AE6136F90695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25124ACF-37DA-411A-9632-B396F38FDC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD957174-91E6-4F52-B01B-8928211DBABF}"/>
   </bookViews>
@@ -35,22 +35,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>O Brasil tem quantos titulos mundiais?&lt;br&gt;a) 4&lt;br&gt;b) 6&lt;br&gt;c) 5</t>
-  </si>
-  <si>
-    <t>Daniel é legal?&lt;br&gt;a) Sim&lt;br&gt;b) Não&lt;br&gt;c) Talvez</t>
-  </si>
-  <si>
     <t>c) 5</t>
   </si>
   <si>
-    <t>Oi? &lt;br&gt;a) Sim&lt;br&gt;b) Não&lt;br&gt;c)Talvez</t>
-  </si>
-  <si>
     <t>a) Sim</t>
   </si>
   <si>
     <t>b) Não</t>
+  </si>
+  <si>
+    <t>Daniel é legal?a) Simb) Nãoc) Talvez</t>
+  </si>
+  <si>
+    <t>O Brasil tem quantos titulos mundiais?a) 4b) 6c) 5</t>
+  </si>
+  <si>
+    <t>Oi? a) Simb) Nãoc)Talvez</t>
   </si>
 </sst>
 </file>
@@ -405,36 +405,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>